--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Hello.</t>
   </si>
@@ -168,6 +168,93 @@
   </si>
   <si>
     <t>Está is used for usted (you [formal]), él (he), and ella (she).  </t>
+  </si>
+  <si>
+    <t>¿Cómo estás?</t>
+  </si>
+  <si>
+    <t>/KOHmoh ehsTAHRS/</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>ella</t>
+  </si>
+  <si>
+    <t>/EHyah/</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>él</t>
+  </si>
+  <si>
+    <t>/ehl/</t>
+  </si>
+  <si>
+    <t>Estoy bien.</t>
+  </si>
+  <si>
+    <t>I'm fine.</t>
+  </si>
+  <si>
+    <t>/ehsTOY byehn/</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>/yoh/</t>
+  </si>
+  <si>
+    <t>(I) am</t>
+  </si>
+  <si>
+    <t>estoy</t>
+  </si>
+  <si>
+    <t>/ehsTOY/</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t>fine.</t>
+  </si>
+  <si>
+    <t>/byehn/</t>
+  </si>
+  <si>
+    <t>Gracias.</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>/GRAHsyahs/</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>/ee/</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>también</t>
+  </si>
+  <si>
+    <t>/tahmBYEHN/</t>
   </si>
 </sst>
 </file>
@@ -228,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,6 +325,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,93 +671,220 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
+    <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Hello.</t>
   </si>
@@ -255,13 +255,121 @@
   </si>
   <si>
     <t>/tahmBYEHN/</t>
+  </si>
+  <si>
+    <t>You're welcome</t>
+  </si>
+  <si>
+    <t>De nada</t>
+  </si>
+  <si>
+    <t>/deh NAHdthah/</t>
+  </si>
+  <si>
+    <t>Está bien.</t>
+  </si>
+  <si>
+    <t>/ehsTAH byehn/</t>
+  </si>
+  <si>
+    <t>Está bien = Ella está bien</t>
+  </si>
+  <si>
+    <t>He/She/it is fine</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>cansado</t>
+  </si>
+  <si>
+    <t>/kahnSAHdthoh/</t>
+  </si>
+  <si>
+    <t>cansada</t>
+  </si>
+  <si>
+    <t>/kahnSAHdthah/</t>
+  </si>
+  <si>
+    <t>In general, masculine nouns and their adjectives end in "-﻿o," and feminine nouns and adjectives end in "-﻿a."</t>
+  </si>
+  <si>
+    <t>Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>Have a good day</t>
+  </si>
+  <si>
+    <t>&gt;That have a good day</t>
+  </si>
+  <si>
+    <t>/keh TEHNgah oon bwehn DEEah/</t>
+  </si>
+  <si>
+    <t>a day</t>
+  </si>
+  <si>
+    <t>un día</t>
+  </si>
+  <si>
+    <t>/oon DEEah/</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bueno</t>
+  </si>
+  <si>
+    <t>/BWEHnoh/</t>
+  </si>
+  <si>
+    <t>un buen día</t>
+  </si>
+  <si>
+    <t>a good day</t>
+  </si>
+  <si>
+    <t>/oon bwehn DEEah/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an adjective ending in "-﻿o" comes before a singular masculine noun, then we drop the "-﻿o."  </t>
+  </si>
+  <si>
+    <t>Again, this only happens if the adjective comes before the noun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example, we say un hombre bueno (a good man) but un buen hombre (a good man) if the adjective comes first.  </t>
+  </si>
+  <si>
+    <t>Remember, this rule only applies to singular masculine nouns.  So buenos días always gets to keep the "-﻿o"!</t>
+  </si>
+  <si>
+    <t>tener</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>/tehNEHR/</t>
+  </si>
+  <si>
+    <t>have [imperative]</t>
+  </si>
+  <si>
+    <t>tenga</t>
+  </si>
+  <si>
+    <t>/TEHNgah/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +402,20 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,8 +447,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,16 +735,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3"/>
@@ -631,7 +758,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3"/>
@@ -646,7 +773,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -659,7 +786,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -672,7 +799,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -685,7 +812,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3"/>
@@ -700,10 +827,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -722,10 +849,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -744,10 +871,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -766,7 +893,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -779,7 +906,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -792,7 +919,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -804,12 +931,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -817,12 +944,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -830,25 +957,34 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="F58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -856,12 +992,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -869,17 +1005,130 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,34 +1235,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>Hello.</t>
   </si>
@@ -363,13 +363,126 @@
   </si>
   <si>
     <t>/TEHNgah/</t>
+  </si>
+  <si>
+    <r>
+      <t>Que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is the subordinate conjunction "that"</t>
+    </r>
+  </si>
+  <si>
+    <t>Likewise</t>
+  </si>
+  <si>
+    <t>Igualmente</t>
+  </si>
+  <si>
+    <t>/eewahIMEHNteh/</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>/behr/</t>
+  </si>
+  <si>
+    <t>See you / We see each other</t>
+  </si>
+  <si>
+    <t>/nohs BEHmohs/</t>
+  </si>
+  <si>
+    <t>Nos vemos</t>
+  </si>
+  <si>
+    <t>hasta</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>/AHStah/</t>
+  </si>
+  <si>
+    <t>luego</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>/LWEHgoh/</t>
+  </si>
+  <si>
+    <t>See you later / Until later</t>
+  </si>
+  <si>
+    <t>/AHStah LWEHgoh/</t>
+  </si>
+  <si>
+    <t>Hasta luego</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>mañana</t>
+  </si>
+  <si>
+    <t>/mahNYAHnah/</t>
+  </si>
+  <si>
+    <t>hasta mañana</t>
+  </si>
+  <si>
+    <t>See you tomorrow/ until tomorrow</t>
+  </si>
+  <si>
+    <t>/AHStah mahNYAHnah/</t>
+  </si>
+  <si>
+    <t>pronto</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>/PROHNtoh/</t>
+  </si>
+  <si>
+    <t>hasta pronto</t>
+  </si>
+  <si>
+    <t>/AHStah PROHNtoh/</t>
+  </si>
+  <si>
+    <t>See you soon / Until soon</t>
+  </si>
+  <si>
+    <t>Adiós</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>/ahDTHYOHS/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +529,12 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFF26F12"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -455,6 +574,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1249,149 @@
       </c>
       <c r="C102" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1217,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1561,13 @@
         <v>107</v>
       </c>
     </row>
+    <row r="28" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
   <si>
     <t>Hello.</t>
   </si>
@@ -476,6 +476,167 @@
   </si>
   <si>
     <t>/ahDTHYOHS/</t>
+  </si>
+  <si>
+    <t>¡Qué día tan frío!</t>
+  </si>
+  <si>
+    <t>What a cold day! / What day so cold!</t>
+  </si>
+  <si>
+    <t>/keh DEEah tahn FREEoh/</t>
+  </si>
+  <si>
+    <t>día</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>/DEEah/</t>
+  </si>
+  <si>
+    <t>Qué</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>/keh/</t>
+  </si>
+  <si>
+    <t>Qué día!</t>
+  </si>
+  <si>
+    <t>What a day!</t>
+  </si>
+  <si>
+    <t>/keh DEEah/</t>
+  </si>
+  <si>
+    <t>frío</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>/FREEoh/</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>/tahn/</t>
+  </si>
+  <si>
+    <t>so cold day</t>
+  </si>
+  <si>
+    <t>/DEEah tahn FREEoh/</t>
+  </si>
+  <si>
+    <t>día tan frío</t>
+  </si>
+  <si>
+    <t>día frío</t>
+  </si>
+  <si>
+    <t>cold day</t>
+  </si>
+  <si>
+    <t>/DEEah FREEoh/</t>
+  </si>
+  <si>
+    <t>Tardes.</t>
+  </si>
+  <si>
+    <t>Afternoon.</t>
+  </si>
+  <si>
+    <t>/TAHRdthehs/</t>
+  </si>
+  <si>
+    <r>
+      <t>tarde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is feminine</t>
+    </r>
+  </si>
+  <si>
+    <t>cold afternoon</t>
+  </si>
+  <si>
+    <t>tarde fría</t>
+  </si>
+  <si>
+    <t>/TAHRdthehs FREEoh/</t>
+  </si>
+  <si>
+    <t>lluvioso</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>/yooBYOHsoh/</t>
+  </si>
+  <si>
+    <t>cold and rainy afternoon</t>
+  </si>
+  <si>
+    <t>tarde fría y lluviosa</t>
+  </si>
+  <si>
+    <t>/TAHRdthehs FREEah ee yooBYOHsoh/</t>
+  </si>
+  <si>
+    <t>fría</t>
+  </si>
+  <si>
+    <t>lluviosa</t>
+  </si>
+  <si>
+    <t>/yooBYOHsah/</t>
+  </si>
+  <si>
+    <t>/FREEah/</t>
+  </si>
+  <si>
+    <t>What a cold and rainy afternoon!</t>
+  </si>
+  <si>
+    <t>¡Qué tarde tan fría y lluviosa!</t>
+  </si>
+  <si>
+    <t>caluroso</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>/kahlooROHsoh/</t>
+  </si>
+  <si>
+    <t>It's hot!</t>
+  </si>
+  <si>
+    <t>¡Está caluroso!</t>
+  </si>
+  <si>
+    <t>/ehsTAH kahlooROHsoh/</t>
+  </si>
+  <si>
+    <t>/keh TAHRdthehs tahn FREEah ee yooBYOHsah/</t>
   </si>
 </sst>
 </file>
@@ -855,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,505 +1054,718 @@
       <c r="E6" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
+      <c r="A9" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+    <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+    <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
+    <row r="57" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
+    <row r="61" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
+    <row r="65" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F66" t="s">
         <v>84</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
+    <row r="69" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
+    <row r="73" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="77" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A85" s="10" t="s">
-        <v>96</v>
+      <c r="A85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
-        <v>101</v>
+      <c r="A93" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" t="s">
-        <v>103</v>
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>111</v>
+      <c r="A102" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="D114" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A121" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="D122" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
-      </c>
-      <c r="D126" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
-      </c>
-      <c r="E134" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="D134" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A137" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C138" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A141" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>137</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>144</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E150" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A145" s="7" t="s">
+    <row r="153" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B154" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A157" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>149</v>
+      </c>
+      <c r="E186" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A189" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190" t="s">
+        <v>180</v>
+      </c>
+      <c r="F190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>182</v>
+      </c>
+      <c r="D194" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A197" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>189</v>
+      </c>
+      <c r="E198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A201" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A205" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,6 +1940,11 @@
         <v>114</v>
       </c>
     </row>
+    <row r="31" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="221">
   <si>
     <t>Hello.</t>
   </si>
@@ -637,6 +637,76 @@
   </si>
   <si>
     <t>/keh TAHRdthehs tahn FREEah ee yooBYOHsah/</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>calurosa</t>
+  </si>
+  <si>
+    <t>/kahlooROHsah/</t>
+  </si>
+  <si>
+    <t>the hot morning</t>
+  </si>
+  <si>
+    <t>la mañana calurosa</t>
+  </si>
+  <si>
+    <t>/lah mahNYAHnah kahlooROHsah/</t>
+  </si>
+  <si>
+    <t>The morning is hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mañana está calurosa.
+</t>
+  </si>
+  <si>
+    <t>/lah mahNYAHnah ehsTAH kahlooROHsah/</t>
+  </si>
+  <si>
+    <t>noche</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>/NOHcheh/</t>
+  </si>
+  <si>
+    <t>What a hot night!</t>
+  </si>
+  <si>
+    <t>¡Qué noche tan calurosa!</t>
+  </si>
+  <si>
+    <t>/keh NOHcheh tahn kahlooROHsah/</t>
+  </si>
+  <si>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>húmedo</t>
+  </si>
+  <si>
+    <t>/Oomehdoh/</t>
+  </si>
+  <si>
+    <t>What a humid day!</t>
+  </si>
+  <si>
+    <t>¡Qué día tan húmedo!</t>
+  </si>
+  <si>
+    <t>/keh DEEah tahn Oomehdoh/</t>
+  </si>
+  <si>
+    <t>húmeda</t>
+  </si>
+  <si>
+    <t>/Oomehdah/</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,12 +1786,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A193" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -1729,12 +1799,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A197" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>189</v>
       </c>
@@ -1742,30 +1812,139 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A201" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>192</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="E202" t="s">
+        <v>192</v>
+      </c>
+      <c r="F202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A205" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>194</v>
       </c>
       <c r="B206" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A209" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>198</v>
+      </c>
+      <c r="B210" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A213" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>201</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A217" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A221" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>208</v>
+      </c>
+      <c r="B222" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A225" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A229" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>213</v>
+      </c>
+      <c r="B230" t="s">
+        <v>215</v>
+      </c>
+      <c r="D230" t="s">
+        <v>213</v>
+      </c>
+      <c r="E230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>216</v>
+      </c>
+      <c r="C234" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="246">
   <si>
     <t>Hello.</t>
   </si>
@@ -707,6 +707,110 @@
   </si>
   <si>
     <t>/Oomehdah/</t>
+  </si>
+  <si>
+    <t>Have a good day / That have a good day.</t>
+  </si>
+  <si>
+    <t>Que tenga un buen día.</t>
+  </si>
+  <si>
+    <t>/keh TEHNgah oon bwehn deeah/</t>
+  </si>
+  <si>
+    <t>Un día.</t>
+  </si>
+  <si>
+    <t>A day</t>
+  </si>
+  <si>
+    <t>/oon deeah/</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>/oon bwehn deeah/</t>
+  </si>
+  <si>
+    <t>if an adjective ending in "-﻿o" comes before a singular masculine noun, then we drop the "-﻿o."</t>
+  </si>
+  <si>
+    <r>
+      <t>un hombre bueno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (a good man) but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>un buen hombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (a good man) if the adjective comes first.</t>
+    </r>
+  </si>
+  <si>
+    <t>Que</t>
+  </si>
+  <si>
+    <t>That</t>
+  </si>
+  <si>
+    <t>(you) have [subjunctive]</t>
+  </si>
+  <si>
+    <t>"Subjunctive" is a form of the verb that is used in Spanish after some verbs and expressions</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>/LOOnehs/</t>
+  </si>
+  <si>
+    <t>Days of the week, unlike English, are not capitalized in Spanish.</t>
+  </si>
+  <si>
+    <t>Igualmente.</t>
+  </si>
+  <si>
+    <t>Likewise.</t>
+  </si>
+  <si>
+    <t>/eewahlMEHNteh/</t>
+  </si>
+  <si>
+    <t>/Nohs BEHmohs/</t>
+  </si>
+  <si>
+    <t>on Tuesday</t>
+  </si>
+  <si>
+    <t>el martes</t>
+  </si>
+  <si>
+    <t>/ehl MAHRtehs/</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,6 +2049,158 @@
       </c>
       <c r="C234" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A237" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A241" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A245" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>102</v>
+      </c>
+      <c r="C246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A249" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B250" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A253" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G253" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>109</v>
+      </c>
+      <c r="B254" t="s">
+        <v>110</v>
+      </c>
+      <c r="E254" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>221</v>
+      </c>
+      <c r="E258" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A261" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>236</v>
+      </c>
+      <c r="B262" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A265" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>240</v>
+      </c>
+      <c r="B266" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>118</v>
+      </c>
+      <c r="B270" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A273" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>121</v>
+      </c>
+      <c r="D274" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A277" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>243</v>
+      </c>
+      <c r="C278" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,6 +2380,26 @@
         <v>175</v>
       </c>
     </row>
+    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
